--- a/Useful Links.xlsx
+++ b/Useful Links.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28609"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_DDE8837AE9D3B58E68D3EA150A3F6B6296DEC88B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71FE99E8-CCF2-4247-A7A0-D4FF07CF2FAD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16D35138-715E-486C-A9A4-EEACB6E0BAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <t>The Complete Guide to Apple IT Pro Certification (DEP-2025)</t>
   </si>
   <si>
-    <t>4. Hardware and Software Requirements</t>
+    <t xml:space="preserve"> Hardware and Software Requirements</t>
   </si>
   <si>
     <t>https://business.apple.com/signup/</t>
@@ -51,19 +51,19 @@
     <t>https://myschool.mosyle.com/signup/</t>
   </si>
   <si>
-    <t>10. Apple's MDM Framework</t>
+    <t xml:space="preserve"> Apple's MDM Framework</t>
   </si>
   <si>
     <t>https://support.apple.com/en-in/guide/deployment/welcome/1/web</t>
   </si>
   <si>
-    <t>15. Supporting Apple Products on Enterprise Networks</t>
+    <t xml:space="preserve"> Supporting Apple Products on Enterprise Networks</t>
   </si>
   <si>
     <t>https://support.apple.com/en-us/101555</t>
   </si>
   <si>
-    <t>17. Enabling Apple Network Support</t>
+    <t xml:space="preserve"> Enabling Apple Network Support</t>
   </si>
   <si>
     <t>https://www.cisco.com/c/en/us/solutions/enterprise-networks/wireless-partnership.html</t>
@@ -72,13 +72,13 @@
     <t>https://support.apple.com/en-us/103229</t>
   </si>
   <si>
-    <t>21. Understanding &amp; Trusting Digital Certificates</t>
+    <t xml:space="preserve"> Understanding &amp; Trusting Digital Certificates</t>
   </si>
   <si>
     <t>https://support.apple.com/en-us/103272</t>
   </si>
   <si>
-    <t>23. Introduction to Apple Business / School Manager</t>
+    <t xml:space="preserve"> Introduction to Apple Business / School Manager</t>
   </si>
   <si>
     <t>https://support.apple.com/en-in/guide/apple-business-manager/axm6d9dc7acf/web</t>
@@ -93,7 +93,7 @@
     <t>https://support.apple.com/en-in/guide/apple-school-manager/axm402206497/web</t>
   </si>
   <si>
-    <t>40. Using Apple Configurator</t>
+    <t xml:space="preserve"> Using Apple Configurator</t>
   </si>
   <si>
     <t>https://support.apple.com/en-in/guide/apple-configurator/welcome/ios</t>
@@ -102,7 +102,7 @@
     <t>https://support.apple.com/en-in/guide/apple-configurator-mac/welcome/mac</t>
   </si>
   <si>
-    <t>53. Shared iPad</t>
+    <t xml:space="preserve"> Shared iPad</t>
   </si>
   <si>
     <t>https://support.apple.com/en-in/guide/apple-business-manager/welcome/web</t>
@@ -111,13 +111,13 @@
     <t>https://support.apple.com/en-in/guide/apple-school-manager/welcome/web</t>
   </si>
   <si>
-    <t>76. Understanding Software Update</t>
+    <t xml:space="preserve"> Understanding Software Update</t>
   </si>
   <si>
     <t>https://beta.apple.com/for-it</t>
   </si>
   <si>
-    <t>93. Introduction to Apple Intelligence</t>
+    <t xml:space="preserve"> Introduction to Apple Intelligence</t>
   </si>
   <si>
     <t>https://www.apple.com/apple-intelligence/</t>
@@ -135,19 +135,19 @@
     <t>https://machinelearning.apple.com/research/introducing-apple-foundation-models</t>
   </si>
   <si>
-    <t>94. Managing Apple Intelligence with MDM</t>
+    <t xml:space="preserve"> Managing Apple Intelligence with MDM</t>
   </si>
   <si>
     <t>https://support.apple.com/en-in/guide/deployment/dep6b5ae23e9/1/web/1.0</t>
   </si>
   <si>
-    <t>97. Introduction to startosinstall for Mac</t>
+    <t xml:space="preserve"> Introduction to startosinstall for Mac</t>
   </si>
   <si>
     <t>https://support.apple.com/en-us/102662</t>
   </si>
   <si>
-    <t>98. Recycling Devices</t>
+    <t xml:space="preserve"> Recycling Devices</t>
   </si>
   <si>
     <t>https://www.apple.com/shop/trade-in</t>
@@ -156,13 +156,13 @@
     <t>https://www.apple.com/newsroom/2019/04/apple-expands-global-recycling-programs/</t>
   </si>
   <si>
-    <t>100. Apple Exam Resources &amp; Preparation</t>
+    <t xml:space="preserve"> Apple Exam Resources &amp; Preparation</t>
   </si>
   <si>
     <t>https://training.apple.com/us/en/it/exams</t>
   </si>
   <si>
-    <t>102. Discover, Learn and Grow with Automata Tech Services</t>
+    <t xml:space="preserve"> Discover, Learn and Grow with Automata Tech Services</t>
   </si>
   <si>
     <t>https://automata-tech.com/subscribe</t>
@@ -178,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +237,14 @@
       <color rgb="FF303141"/>
       <name val="Aptos Display"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -267,9 +275,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -303,6 +308,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -640,862 +646,865 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66E2846-42DF-4F45-8E45-37B8234EAF7A}">
   <dimension ref="A1:C188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="75.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="13"/>
-    <col min="3" max="3" width="9.140625" style="14"/>
+    <col min="1" max="1" width="75.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="101.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="13"/>
+    <col min="12" max="12" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="7" t="s">
+    <row r="19" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="7" t="s">
+    <row r="22" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="7" t="s">
+    <row r="23" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="7" t="s">
+    <row r="24" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="9"/>
-      <c r="B25" s="7" t="s">
+    <row r="25" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A25" s="8"/>
+      <c r="B25" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A26" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A27" s="9"/>
-      <c r="B27" s="7" t="s">
+    <row r="27" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A27" s="8"/>
+      <c r="B27" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A28" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A29" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A30" s="9"/>
-      <c r="B30" s="7" t="s">
+    <row r="30" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A30" s="8"/>
+      <c r="B30" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A31" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A32" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A33" s="9"/>
-      <c r="B33" s="7" t="s">
+    <row r="33" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A33" s="8"/>
+      <c r="B33" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A34" s="9"/>
-      <c r="B34" s="7" t="s">
+    <row r="34" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A34" s="8"/>
+      <c r="B34" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-    </row>
-    <row r="36" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-    </row>
-    <row r="37" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-    </row>
-    <row r="38" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-    </row>
-    <row r="39" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-    </row>
-    <row r="40" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-    </row>
-    <row r="41" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-    </row>
-    <row r="42" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-    </row>
-    <row r="43" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-    </row>
-    <row r="44" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-    </row>
-    <row r="45" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-    </row>
-    <row r="46" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-    </row>
-    <row r="47" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-    </row>
-    <row r="48" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-    </row>
-    <row r="49" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-    </row>
-    <row r="50" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-    </row>
-    <row r="51" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-    </row>
-    <row r="52" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-    </row>
-    <row r="53" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-    </row>
-    <row r="54" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-    </row>
-    <row r="55" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-    </row>
-    <row r="56" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-    </row>
-    <row r="57" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-    </row>
-    <row r="58" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-    </row>
-    <row r="59" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-    </row>
-    <row r="60" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-    </row>
-    <row r="61" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-    </row>
-    <row r="62" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-    </row>
-    <row r="63" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-    </row>
-    <row r="64" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-    </row>
-    <row r="65" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
-    </row>
-    <row r="66" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-    </row>
-    <row r="67" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-    </row>
-    <row r="68" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-    </row>
-    <row r="69" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-    </row>
-    <row r="70" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-    </row>
-    <row r="71" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-    </row>
-    <row r="72" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-    </row>
-    <row r="73" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-    </row>
-    <row r="74" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
-    </row>
-    <row r="75" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
-    </row>
-    <row r="76" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-    </row>
-    <row r="77" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
-    </row>
-    <row r="78" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-    </row>
-    <row r="79" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-    </row>
-    <row r="80" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-    </row>
-    <row r="81" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
-    </row>
-    <row r="82" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
-    </row>
-    <row r="83" spans="1:2" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-    </row>
-    <row r="84" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
-    </row>
-    <row r="85" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
-    </row>
-    <row r="86" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13"/>
-    </row>
-    <row r="87" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
-    </row>
-    <row r="88" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
-    </row>
-    <row r="89" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13"/>
-    </row>
-    <row r="90" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
-    </row>
-    <row r="91" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-    </row>
-    <row r="92" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A92" s="13"/>
-      <c r="B92" s="13"/>
-    </row>
-    <row r="93" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
-    </row>
-    <row r="94" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
-    </row>
-    <row r="95" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A95" s="13"/>
-      <c r="B95" s="13"/>
-    </row>
-    <row r="96" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A96" s="13"/>
-      <c r="B96" s="13"/>
-    </row>
-    <row r="97" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13"/>
-    </row>
-    <row r="98" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A98" s="13"/>
-      <c r="B98" s="13"/>
-    </row>
-    <row r="99" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A99" s="13"/>
-      <c r="B99" s="13"/>
-    </row>
-    <row r="100" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A100" s="13"/>
-      <c r="B100" s="13"/>
-    </row>
-    <row r="101" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
-    </row>
-    <row r="102" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A102" s="13"/>
-      <c r="B102" s="13"/>
-    </row>
-    <row r="103" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A103" s="13"/>
-      <c r="B103" s="13"/>
-    </row>
-    <row r="104" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A104" s="13"/>
-      <c r="B104" s="13"/>
-    </row>
-    <row r="105" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A105" s="13"/>
-      <c r="B105" s="13"/>
-    </row>
-    <row r="106" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A106" s="13"/>
-      <c r="B106" s="13"/>
-    </row>
-    <row r="107" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A107" s="13"/>
-      <c r="B107" s="13"/>
-    </row>
-    <row r="108" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A108" s="13"/>
-      <c r="B108" s="13"/>
-    </row>
-    <row r="109" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A109" s="13"/>
-      <c r="B109" s="13"/>
-    </row>
-    <row r="110" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A110" s="13"/>
-      <c r="B110" s="13"/>
-    </row>
-    <row r="111" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A111" s="13"/>
-      <c r="B111" s="13"/>
-    </row>
-    <row r="112" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A112" s="13"/>
-      <c r="B112" s="13"/>
-    </row>
-    <row r="113" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A113" s="13"/>
-      <c r="B113" s="13"/>
-    </row>
-    <row r="114" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A114" s="13"/>
-      <c r="B114" s="13"/>
-    </row>
-    <row r="115" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A115" s="13"/>
-      <c r="B115" s="13"/>
-    </row>
-    <row r="116" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A116" s="13"/>
-      <c r="B116" s="13"/>
-    </row>
-    <row r="117" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A117" s="13"/>
-      <c r="B117" s="13"/>
-    </row>
-    <row r="118" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A118" s="13"/>
-      <c r="B118" s="13"/>
-    </row>
-    <row r="119" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A119" s="13"/>
-      <c r="B119" s="13"/>
-    </row>
-    <row r="120" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A120" s="13"/>
-      <c r="B120" s="13"/>
-    </row>
-    <row r="121" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A121" s="13"/>
-      <c r="B121" s="13"/>
-    </row>
-    <row r="122" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A122" s="13"/>
-      <c r="B122" s="13"/>
-    </row>
-    <row r="123" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A123" s="13"/>
-      <c r="B123" s="13"/>
-    </row>
-    <row r="124" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A124" s="13"/>
-      <c r="B124" s="13"/>
-    </row>
-    <row r="125" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A125" s="13"/>
-      <c r="B125" s="13"/>
-    </row>
-    <row r="126" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A126" s="13"/>
-      <c r="B126" s="13"/>
-    </row>
-    <row r="127" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A127" s="13"/>
-      <c r="B127" s="13"/>
-    </row>
-    <row r="128" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A128" s="13"/>
-      <c r="B128" s="13"/>
-    </row>
-    <row r="129" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A129" s="13"/>
-      <c r="B129" s="13"/>
-    </row>
-    <row r="130" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A130" s="13"/>
-      <c r="B130" s="13"/>
-    </row>
-    <row r="131" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A131" s="13"/>
-      <c r="B131" s="13"/>
-    </row>
-    <row r="132" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A132" s="13"/>
-      <c r="B132" s="13"/>
-    </row>
-    <row r="133" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A133" s="13"/>
-      <c r="B133" s="13"/>
-    </row>
-    <row r="134" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A134" s="13"/>
-      <c r="B134" s="13"/>
-    </row>
-    <row r="135" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A135" s="13"/>
-      <c r="B135" s="13"/>
-    </row>
-    <row r="136" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A136" s="13"/>
-      <c r="B136" s="13"/>
-    </row>
-    <row r="137" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A137" s="13"/>
-      <c r="B137" s="13"/>
-    </row>
-    <row r="138" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A138" s="13"/>
-      <c r="B138" s="13"/>
-    </row>
-    <row r="139" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A139" s="13"/>
-      <c r="B139" s="13"/>
-    </row>
-    <row r="140" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A140" s="13"/>
-      <c r="B140" s="13"/>
-    </row>
-    <row r="141" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A141" s="13"/>
-      <c r="B141" s="13"/>
-    </row>
-    <row r="142" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A142" s="13"/>
-      <c r="B142" s="13"/>
-    </row>
-    <row r="143" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A143" s="13"/>
-      <c r="B143" s="13"/>
-    </row>
-    <row r="144" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A144" s="13"/>
-      <c r="B144" s="13"/>
-    </row>
-    <row r="145" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A145" s="13"/>
-      <c r="B145" s="13"/>
-    </row>
-    <row r="146" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A146" s="13"/>
-      <c r="B146" s="13"/>
-    </row>
-    <row r="147" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A147" s="13"/>
-      <c r="B147" s="13"/>
-    </row>
-    <row r="148" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A148" s="13"/>
-      <c r="B148" s="13"/>
-    </row>
-    <row r="149" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A149" s="13"/>
-      <c r="B149" s="13"/>
-    </row>
-    <row r="150" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A150" s="13"/>
-      <c r="B150" s="13"/>
-    </row>
-    <row r="151" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A151" s="13"/>
-      <c r="B151" s="13"/>
-    </row>
-    <row r="152" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A152" s="13"/>
-      <c r="B152" s="13"/>
-    </row>
-    <row r="153" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A153" s="13"/>
-      <c r="B153" s="13"/>
-    </row>
-    <row r="154" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A154" s="13"/>
-      <c r="B154" s="13"/>
-    </row>
-    <row r="155" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A155" s="13"/>
-      <c r="B155" s="13"/>
-    </row>
-    <row r="156" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A156" s="13"/>
-      <c r="B156" s="13"/>
-    </row>
-    <row r="157" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A157" s="13"/>
-      <c r="B157" s="13"/>
-    </row>
-    <row r="158" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A158" s="13"/>
-      <c r="B158" s="13"/>
-    </row>
-    <row r="159" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A159" s="13"/>
-      <c r="B159" s="13"/>
-    </row>
-    <row r="160" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A160" s="13"/>
-      <c r="B160" s="13"/>
-    </row>
-    <row r="161" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A161" s="13"/>
-      <c r="B161" s="13"/>
-    </row>
-    <row r="162" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A162" s="13"/>
-      <c r="B162" s="13"/>
-    </row>
-    <row r="163" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A163" s="13"/>
-      <c r="B163" s="13"/>
-    </row>
-    <row r="164" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A164" s="13"/>
-      <c r="B164" s="13"/>
-    </row>
-    <row r="165" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A165" s="13"/>
-      <c r="B165" s="13"/>
-    </row>
-    <row r="166" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A166" s="13"/>
-      <c r="B166" s="13"/>
-    </row>
-    <row r="167" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A167" s="13"/>
-      <c r="B167" s="13"/>
-    </row>
-    <row r="168" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A168" s="13"/>
-      <c r="B168" s="13"/>
-    </row>
-    <row r="169" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A169" s="13"/>
-      <c r="B169" s="13"/>
-    </row>
-    <row r="170" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A170" s="13"/>
-      <c r="B170" s="13"/>
-    </row>
-    <row r="171" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A171" s="13"/>
-      <c r="B171" s="13"/>
-    </row>
-    <row r="172" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A172" s="13"/>
-      <c r="B172" s="13"/>
-    </row>
-    <row r="173" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A173" s="13"/>
-      <c r="B173" s="13"/>
-    </row>
-    <row r="174" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A174" s="13"/>
-      <c r="B174" s="13"/>
-    </row>
-    <row r="175" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A175" s="13"/>
-      <c r="B175" s="13"/>
-    </row>
-    <row r="176" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A176" s="13"/>
-      <c r="B176" s="13"/>
-    </row>
-    <row r="177" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A177" s="13"/>
-      <c r="B177" s="13"/>
-    </row>
-    <row r="178" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A178" s="13"/>
-      <c r="B178" s="13"/>
-    </row>
-    <row r="179" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A179" s="13"/>
-      <c r="B179" s="13"/>
-    </row>
-    <row r="180" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A180" s="13"/>
-      <c r="B180" s="13"/>
-    </row>
-    <row r="181" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A181" s="13"/>
-      <c r="B181" s="13"/>
-    </row>
-    <row r="182" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A182" s="13"/>
-      <c r="B182" s="13"/>
-    </row>
-    <row r="183" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A183" s="13"/>
-      <c r="B183" s="13"/>
-    </row>
-    <row r="184" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A184" s="13"/>
-      <c r="B184" s="13"/>
-    </row>
-    <row r="185" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A185" s="13"/>
-      <c r="B185" s="13"/>
-    </row>
-    <row r="186" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A186" s="13"/>
-      <c r="B186" s="13"/>
-    </row>
-    <row r="187" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A187" s="13"/>
-      <c r="B187" s="13"/>
-    </row>
-    <row r="188" spans="1:2" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A188" s="13"/>
-      <c r="B188" s="13"/>
+    <row r="35" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+    </row>
+    <row r="40" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+    </row>
+    <row r="41" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+    </row>
+    <row r="42" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+    </row>
+    <row r="43" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+    </row>
+    <row r="45" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+    </row>
+    <row r="46" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+    </row>
+    <row r="47" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+    </row>
+    <row r="48" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+    </row>
+    <row r="49" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+    </row>
+    <row r="50" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+    </row>
+    <row r="51" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+    </row>
+    <row r="52" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+    </row>
+    <row r="53" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+    </row>
+    <row r="54" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+    </row>
+    <row r="55" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+    </row>
+    <row r="56" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+    </row>
+    <row r="57" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+    </row>
+    <row r="59" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+    </row>
+    <row r="60" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+    </row>
+    <row r="61" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+    </row>
+    <row r="62" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+    </row>
+    <row r="63" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+    </row>
+    <row r="64" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+    </row>
+    <row r="65" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+    </row>
+    <row r="66" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+    </row>
+    <row r="67" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+    </row>
+    <row r="68" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+    </row>
+    <row r="69" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+    </row>
+    <row r="70" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+    </row>
+    <row r="71" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+    </row>
+    <row r="72" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+    </row>
+    <row r="73" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+    </row>
+    <row r="74" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+    </row>
+    <row r="75" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+    </row>
+    <row r="76" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+    </row>
+    <row r="77" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+    </row>
+    <row r="78" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+    </row>
+    <row r="79" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+    </row>
+    <row r="80" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+    </row>
+    <row r="81" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+    </row>
+    <row r="82" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+    </row>
+    <row r="83" spans="1:2" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+    </row>
+    <row r="84" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
+    </row>
+    <row r="85" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
+    </row>
+    <row r="86" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
+    </row>
+    <row r="87" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
+    </row>
+    <row r="88" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
+    </row>
+    <row r="89" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
+    </row>
+    <row r="90" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
+    </row>
+    <row r="91" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
+    </row>
+    <row r="92" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A92" s="12"/>
+      <c r="B92" s="12"/>
+    </row>
+    <row r="93" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
+    </row>
+    <row r="94" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A94" s="12"/>
+      <c r="B94" s="12"/>
+    </row>
+    <row r="95" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A95" s="12"/>
+      <c r="B95" s="12"/>
+    </row>
+    <row r="96" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
+    </row>
+    <row r="97" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A97" s="12"/>
+      <c r="B97" s="12"/>
+    </row>
+    <row r="98" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
+    </row>
+    <row r="99" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A99" s="12"/>
+      <c r="B99" s="12"/>
+    </row>
+    <row r="100" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
+    </row>
+    <row r="101" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
+    </row>
+    <row r="102" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
+    </row>
+    <row r="103" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
+    </row>
+    <row r="104" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
+    </row>
+    <row r="105" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
+    </row>
+    <row r="106" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
+    </row>
+    <row r="107" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
+    </row>
+    <row r="108" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A108" s="12"/>
+      <c r="B108" s="12"/>
+    </row>
+    <row r="109" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
+    </row>
+    <row r="110" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+    </row>
+    <row r="111" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A111" s="12"/>
+      <c r="B111" s="12"/>
+    </row>
+    <row r="112" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
+    </row>
+    <row r="113" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A113" s="12"/>
+      <c r="B113" s="12"/>
+    </row>
+    <row r="114" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A114" s="12"/>
+      <c r="B114" s="12"/>
+    </row>
+    <row r="115" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A115" s="12"/>
+      <c r="B115" s="12"/>
+    </row>
+    <row r="116" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A116" s="12"/>
+      <c r="B116" s="12"/>
+    </row>
+    <row r="117" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A117" s="12"/>
+      <c r="B117" s="12"/>
+    </row>
+    <row r="118" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A118" s="12"/>
+      <c r="B118" s="12"/>
+    </row>
+    <row r="119" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A119" s="12"/>
+      <c r="B119" s="12"/>
+    </row>
+    <row r="120" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A120" s="12"/>
+      <c r="B120" s="12"/>
+    </row>
+    <row r="121" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
+    </row>
+    <row r="122" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
+    </row>
+    <row r="123" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A123" s="12"/>
+      <c r="B123" s="12"/>
+    </row>
+    <row r="124" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A124" s="12"/>
+      <c r="B124" s="12"/>
+    </row>
+    <row r="125" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A125" s="12"/>
+      <c r="B125" s="12"/>
+    </row>
+    <row r="126" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A126" s="12"/>
+      <c r="B126" s="12"/>
+    </row>
+    <row r="127" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A127" s="12"/>
+      <c r="B127" s="12"/>
+    </row>
+    <row r="128" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A128" s="12"/>
+      <c r="B128" s="12"/>
+    </row>
+    <row r="129" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A129" s="12"/>
+      <c r="B129" s="12"/>
+    </row>
+    <row r="130" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A130" s="12"/>
+      <c r="B130" s="12"/>
+    </row>
+    <row r="131" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A131" s="12"/>
+      <c r="B131" s="12"/>
+    </row>
+    <row r="132" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A132" s="12"/>
+      <c r="B132" s="12"/>
+    </row>
+    <row r="133" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A133" s="12"/>
+      <c r="B133" s="12"/>
+    </row>
+    <row r="134" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A134" s="12"/>
+      <c r="B134" s="12"/>
+    </row>
+    <row r="135" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A135" s="12"/>
+      <c r="B135" s="12"/>
+    </row>
+    <row r="136" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A136" s="12"/>
+      <c r="B136" s="12"/>
+    </row>
+    <row r="137" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A137" s="12"/>
+      <c r="B137" s="12"/>
+    </row>
+    <row r="138" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A138" s="12"/>
+      <c r="B138" s="12"/>
+    </row>
+    <row r="139" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A139" s="12"/>
+      <c r="B139" s="12"/>
+    </row>
+    <row r="140" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A140" s="12"/>
+      <c r="B140" s="12"/>
+    </row>
+    <row r="141" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A141" s="12"/>
+      <c r="B141" s="12"/>
+    </row>
+    <row r="142" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A142" s="12"/>
+      <c r="B142" s="12"/>
+    </row>
+    <row r="143" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A143" s="12"/>
+      <c r="B143" s="12"/>
+    </row>
+    <row r="144" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A144" s="12"/>
+      <c r="B144" s="12"/>
+    </row>
+    <row r="145" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A145" s="12"/>
+      <c r="B145" s="12"/>
+    </row>
+    <row r="146" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A146" s="12"/>
+      <c r="B146" s="12"/>
+    </row>
+    <row r="147" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A147" s="12"/>
+      <c r="B147" s="12"/>
+    </row>
+    <row r="148" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A148" s="12"/>
+      <c r="B148" s="12"/>
+    </row>
+    <row r="149" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A149" s="12"/>
+      <c r="B149" s="12"/>
+    </row>
+    <row r="150" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A150" s="12"/>
+      <c r="B150" s="12"/>
+    </row>
+    <row r="151" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A151" s="12"/>
+      <c r="B151" s="12"/>
+    </row>
+    <row r="152" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A152" s="12"/>
+      <c r="B152" s="12"/>
+    </row>
+    <row r="153" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A153" s="12"/>
+      <c r="B153" s="12"/>
+    </row>
+    <row r="154" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A154" s="12"/>
+      <c r="B154" s="12"/>
+    </row>
+    <row r="155" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A155" s="12"/>
+      <c r="B155" s="12"/>
+    </row>
+    <row r="156" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A156" s="12"/>
+      <c r="B156" s="12"/>
+    </row>
+    <row r="157" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A157" s="12"/>
+      <c r="B157" s="12"/>
+    </row>
+    <row r="158" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A158" s="12"/>
+      <c r="B158" s="12"/>
+    </row>
+    <row r="159" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A159" s="12"/>
+      <c r="B159" s="12"/>
+    </row>
+    <row r="160" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A160" s="12"/>
+      <c r="B160" s="12"/>
+    </row>
+    <row r="161" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A161" s="12"/>
+      <c r="B161" s="12"/>
+    </row>
+    <row r="162" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A162" s="12"/>
+      <c r="B162" s="12"/>
+    </row>
+    <row r="163" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A163" s="12"/>
+      <c r="B163" s="12"/>
+    </row>
+    <row r="164" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A164" s="12"/>
+      <c r="B164" s="12"/>
+    </row>
+    <row r="165" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A165" s="12"/>
+      <c r="B165" s="12"/>
+    </row>
+    <row r="166" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A166" s="12"/>
+      <c r="B166" s="12"/>
+    </row>
+    <row r="167" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A167" s="12"/>
+      <c r="B167" s="12"/>
+    </row>
+    <row r="168" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A168" s="12"/>
+      <c r="B168" s="12"/>
+    </row>
+    <row r="169" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A169" s="12"/>
+      <c r="B169" s="12"/>
+    </row>
+    <row r="170" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A170" s="12"/>
+      <c r="B170" s="12"/>
+    </row>
+    <row r="171" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A171" s="12"/>
+      <c r="B171" s="12"/>
+    </row>
+    <row r="172" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A172" s="12"/>
+      <c r="B172" s="12"/>
+    </row>
+    <row r="173" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A173" s="12"/>
+      <c r="B173" s="12"/>
+    </row>
+    <row r="174" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A174" s="12"/>
+      <c r="B174" s="12"/>
+    </row>
+    <row r="175" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A175" s="12"/>
+      <c r="B175" s="12"/>
+    </row>
+    <row r="176" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A176" s="12"/>
+      <c r="B176" s="12"/>
+    </row>
+    <row r="177" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A177" s="12"/>
+      <c r="B177" s="12"/>
+    </row>
+    <row r="178" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A178" s="12"/>
+      <c r="B178" s="12"/>
+    </row>
+    <row r="179" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A179" s="12"/>
+      <c r="B179" s="12"/>
+    </row>
+    <row r="180" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A180" s="12"/>
+      <c r="B180" s="12"/>
+    </row>
+    <row r="181" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A181" s="12"/>
+      <c r="B181" s="12"/>
+    </row>
+    <row r="182" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A182" s="12"/>
+      <c r="B182" s="12"/>
+    </row>
+    <row r="183" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A183" s="12"/>
+      <c r="B183" s="12"/>
+    </row>
+    <row r="184" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A184" s="12"/>
+      <c r="B184" s="12"/>
+    </row>
+    <row r="185" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A185" s="12"/>
+      <c r="B185" s="12"/>
+    </row>
+    <row r="186" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A186" s="12"/>
+      <c r="B186" s="12"/>
+    </row>
+    <row r="187" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A187" s="12"/>
+      <c r="B187" s="12"/>
+    </row>
+    <row r="188" spans="1:2" s="13" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A188" s="12"/>
+      <c r="B188" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1531,7 +1540,6 @@
     <hyperlink ref="B31" r:id="rId30" xr:uid="{38219B99-4B66-4D79-B2D7-58C65F5B4E0D}"/>
     <hyperlink ref="B32" r:id="rId31" xr:uid="{20E5ED62-578D-48C4-B77D-50C076B37EAC}"/>
     <hyperlink ref="B33" r:id="rId32" xr:uid="{238A9940-8FA1-491E-9302-111752309C8C}"/>
-    <hyperlink ref="A1" r:id="rId33" xr:uid="{F3416C47-9642-47B5-B1FC-2599E5C45ADC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1550,15 +1558,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF5EC4FAED17FD4FA002B715A7CB3129" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0f295b4eaac5758ed5fac4959b75d881">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="92e4be8c-5aca-45ec-8e17-deab1f90d7c8" xmlns:ns3="92b31412-8c8f-44f1-a883-141cef3f34cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="57dd884e41ecc57e715e77a3a1c4b2cc" ns2:_="" ns3:_="">
     <xsd:import namespace="92e4be8c-5aca-45ec-8e17-deab1f90d7c8"/>
@@ -1821,14 +1820,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20996122-D16A-4982-8BF9-E01F00A09853}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{703D3AA3-3B95-47DC-ADAD-A5BFCAEC223E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4153AC18-49E7-43FB-9EBD-C14DD088C1B2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4153AC18-49E7-43FB-9EBD-C14DD088C1B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{703D3AA3-3B95-47DC-ADAD-A5BFCAEC223E}"/>
 </file>